--- a/mbs-perturbation/bloated/multinomialNB/smote/bloated-multinomialNB-smote-results.xlsx
+++ b/mbs-perturbation/bloated/multinomialNB/smote/bloated-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4574468085106383</v>
+        <v>0.4850746268656717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4457013574660634</v>
+        <v>0.4800995024875622</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4349389228930877</v>
+        <v>0.4652452025586354</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4457013574660634</v>
+        <v>0.4800995024875622</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7565217391304347</v>
+        <v>0.7863636363636364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.76875771287536</v>
+        <v>0.8134328358208955</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7686111111111111</v>
+        <v>0.8130151386416775</v>
       </c>
       <c r="E3" t="n">
-        <v>0.76875771287536</v>
+        <v>0.8134328358208955</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.7337278106508875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6437062937062937</v>
+        <v>0.6965174129353233</v>
       </c>
       <c r="D4" t="n">
-        <v>0.638156209987196</v>
+        <v>0.69458213974343</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6437062937062936</v>
+        <v>0.6965174129353233</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6597938144329897</v>
+        <v>0.6647398843930635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6395927601809954</v>
+        <v>0.6432213930348258</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6381981889012152</v>
+        <v>0.641644325290438</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6395927601809955</v>
+        <v>0.6432213930348258</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9401709401709402</v>
+        <v>0.948905109489051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7329596873714521</v>
+        <v>0.8058830845771144</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7169879046293073</v>
+        <v>0.8005636604774535</v>
       </c>
       <c r="E6" t="n">
-        <v>0.732959687371452</v>
+        <v>0.8058830845771143</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7009684786308188</v>
+        <v>0.723762213552462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6461435623200329</v>
+        <v>0.6878308457711443</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6393784675043834</v>
+        <v>0.6830100933423269</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6461435623200329</v>
+        <v>0.6878308457711442</v>
       </c>
     </row>
   </sheetData>
